--- a/data/trans_bre/P31_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,67</t>
+          <t>22,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>22,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>11,52</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35,36%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43,87%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 18,98</t>
+          <t>0,12; 20,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,82; 31,15</t>
+          <t>12,12; 32,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 19,49</t>
+          <t>-4,15; 18,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 30,06</t>
+          <t>9,66; 36,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,15; 55,74</t>
+          <t>-2,18; 20,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 33,54</t>
+          <t>-0,36; 24,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 32,47</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,24; 60,89</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 31,41</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,59; 86,95</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 32,28</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 45,11</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>13,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>14,26</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12,12%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 23,22</t>
+          <t>2,84; 24,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 15,63</t>
+          <t>0,37; 14,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 18,27</t>
+          <t>-0,43; 18,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 36,1</t>
+          <t>0,93; 25,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 20,97</t>
+          <t>-7,51; 11,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 27,67</t>
+          <t>3,5; 25,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 40,33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 19,78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 27,74</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 45,54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,76; 15,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4,63; 41,64</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>12,84</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -802,32 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 22,72</t>
+          <t>3,11; 17,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 12,69</t>
+          <t>1,87; 13,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 11,09</t>
+          <t>-0,31; 10,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 32,9</t>
+          <t>0,18; 17,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 16,17</t>
+          <t>-1,92; 11,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 13,9</t>
+          <t>5,54; 21,0</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 22,7</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 17,11</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 13,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 25,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 14,95</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,94; 30,36</t>
         </is>
       </c>
     </row>
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>11,91</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,13%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -882,32 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 16,69</t>
+          <t>3,27; 16,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 9,64</t>
+          <t>0,27; 10,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 13,82</t>
+          <t>3,62; 14,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 22,79</t>
+          <t>5,55; 19,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 11,62</t>
+          <t>-1,82; 10,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 17,68</t>
+          <t>5,4; 18,91</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 22,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 13,25</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 18,01</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7,37; 29,35</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 13,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 25,82</t>
         </is>
       </c>
     </row>
@@ -924,32 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 20,69</t>
+          <t>4,92; 19,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,28</t>
+          <t>2,77; 15,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 12,72</t>
+          <t>0,38; 13,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 28,39</t>
+          <t>5,96; 22,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 19,99</t>
+          <t>-1,69; 9,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 16,09</t>
+          <t>-3,68; 10,25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 25,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 20,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 17,44</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,6; 34,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 10,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 12,86</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,15</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>9,54</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3,84%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,36%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11,41%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 6,33</t>
+          <t>-2,81; 7,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,55; 14,71</t>
+          <t>2,11; 12,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,7</t>
+          <t>-1,07; 8,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 7,17</t>
+          <t>-6,45; 8,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,82; 18,76</t>
+          <t>-11,42; 5,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 10,02</t>
+          <t>1,99; 17,37</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 8,42</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 15,08</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 10,14</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 9,7</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-12,28; 5,79</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 22,54</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>11,22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -1122,47 +1560,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,6; 13,36</t>
+          <t>6,69; 13,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,97</t>
+          <t>7,04; 12,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 10,46</t>
+          <t>4,2; 10,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,16; 17,67</t>
+          <t>7,88; 15,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,1</t>
+          <t>0,37; 6,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 13,44</t>
+          <t>7,65; 14,7</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 17,55</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8,46; 15,98</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 13,14</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 22,61</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 8,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 20,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
